--- a/biology/Histoire de la zoologie et de la botanique/Karl_von_Reichenbach/Karl_von_Reichenbach.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_von_Reichenbach/Karl_von_Reichenbach.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baron Karl (ou Carl) Ludwig von Reichenbach est un chimiste wurtembergeois, né le 12 février 1788 à Stuttgart, et mort le 19 janvier 1869 à Leipzig.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient son doctorat à l’université de Tübingen. De 1821 à 1834, il fonde la première compagnie des forges modernes d’Allemagne d’abord à Villingen-Schwenningen, puis à Hausach et enfin à Baden. 
 Il établit aussi plusieurs usines en Moravie.
@@ -545,7 +559,9 @@
           <t>L'od</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le baron est fasciné par la force vitale ou fluide, qu'il appelle "od". Il écrit plusieurs livres sur le sujet : Odisch-Magnetische Briefe (1852), Der sensitive Mensch und sein Verhalten zum Ode (1854), Odische Erweiterungen (1856), Köhierglaube und Afterwissenschaft (1856), Aphorismen über Sensibilität und Od (1866) et Die Odische Lohe (1867) : 
 Od est le mot capable d'exprimer la dynamique d'une force qui, avec une puissance qui ne peut être interrompue, pénètre rapidement chaque chose et court à travers tout l'univers.</t>
@@ -576,7 +592,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Das Kreosot: ein neuentdeckter Bestandtheil des gemeinen Rauches, des Holzessigs und aller Arten von Theer 1833
 Geologische Mitteilungen aus Mähren (Geological news from Moravia) Wien, 1834
